--- a/HLS_man/COP22/COP22_man_czechrepublic.xlsx
+++ b/HLS_man/COP22/COP22_man_czechrepublic.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Suze van Santen\Documents\GitHub\TextToDistributiveJustice\HLS_man\COP22\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1BD8865-32CE-4973-8270-00821854B45A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C488F873-8D91-43CB-83A5-032A4EBBA645}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28800" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="47">
   <si>
     <t>COP22_czechrepublic</t>
   </si>
@@ -172,68 +172,56 @@
 reach more than 2 bill. Euro by 2020.</t>
   </si>
   <si>
-    <t>emissions</t>
-  </si>
-  <si>
-    <t>sufficientarian</t>
-  </si>
-  <si>
-    <t>multinational(EU</t>
-  </si>
-  <si>
-    <t>distant future</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mentioning of a policytarget of mitigation set together with EU. </t>
-  </si>
-  <si>
-    <t>A new Climate Protection Policy in the Czech Republic, which will serve as our 
-low carbon development strategy is expected to be adopted in March 2017. The 
+    <t>adaptation, mitigation</t>
+  </si>
+  <si>
+    <t>financial resources</t>
+  </si>
+  <si>
+    <t>global</t>
+  </si>
+  <si>
+    <t>n.a.</t>
+  </si>
+  <si>
+    <t>prioritarian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Support of most vulerable and poorest countries. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A new Climate Protection Policy in the Czech Republic, which will serve as our 
+low carbon development strategy is expected to be adopted in March 2017. </t>
+  </si>
+  <si>
+    <t>The 
 Policy suggests reaching a long term goal to reduce GHG emissions in 2050 by 80 
 per cent and that all key economic sectors will contribute to achieving this goal 
 with specific measures.</t>
   </si>
   <si>
-    <t>policy target, mitigation</t>
-  </si>
-  <si>
-    <t>national</t>
-  </si>
-  <si>
-    <t>sufficientarian, egalitarian</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mentioning of a policytarget of national mitigation efforts. Mentioning all key economic sectors to contribute presents an egalitarian vew. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">policy target, mitigation, moral responsibility </t>
-  </si>
-  <si>
-    <t>We are aware of the fact that the poorest and most vulnerable countries are 
+    <t xml:space="preserve">We are aware of the fact that the poorest and most vulnerable countries are 
 dependent on support to address their domestic climate challenges and risks.
-In this respect I am pleased to inform you that the Czech Republic provided in 
+</t>
+  </si>
+  <si>
+    <t>In this respect I am pleased to inform you that the Czech Republic provided in 
 total 8,1 mil. EUR of climate finance in 2015 through its bilateral and multilateral 
 channels and is prepared to continue to provide nece ssary support to developing 
 countries in order to assist them in their adaptation and mitigation needs and 
 efforts.</t>
   </si>
   <si>
-    <t>adaptation, mitigation</t>
-  </si>
-  <si>
-    <t>financial resources</t>
-  </si>
-  <si>
-    <t>global</t>
-  </si>
-  <si>
-    <t>n.a.</t>
-  </si>
-  <si>
-    <t>prioritarian</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Support of most vulerable and poorest countries. </t>
+    <t>measures</t>
+  </si>
+  <si>
+    <t>utilitarian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Presenting the need for implementation of measures for the benefit of current and future generations. </t>
+  </si>
+  <si>
+    <t>implementation, UNFCCC agreements and policies</t>
   </si>
 </sst>
 </file>
@@ -252,6 +240,7 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -602,18 +591,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I24"/>
+  <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="36.42578125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="36.44140625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -642,7 +631,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="210" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>9</v>
       </c>
@@ -650,7 +639,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
@@ -658,7 +647,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>11</v>
       </c>
@@ -669,7 +658,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>12</v>
       </c>
@@ -677,7 +666,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>13</v>
       </c>
@@ -685,7 +674,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>14</v>
       </c>
@@ -693,7 +682,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>15</v>
       </c>
@@ -701,7 +690,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>16</v>
       </c>
@@ -709,33 +698,15 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" t="s">
-        <v>39</v>
-      </c>
-      <c r="D10" t="s">
-        <v>33</v>
-      </c>
-      <c r="E10" t="s">
-        <v>35</v>
-      </c>
-      <c r="F10" t="s">
-        <v>36</v>
-      </c>
-      <c r="G10" t="s">
-        <v>34</v>
-      </c>
-      <c r="H10" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>18</v>
       </c>
@@ -743,7 +714,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>19</v>
       </c>
@@ -751,132 +722,148 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" t="s">
+        <v>33</v>
+      </c>
+      <c r="D20" t="s">
+        <v>34</v>
+      </c>
+      <c r="E20" t="s">
+        <v>35</v>
+      </c>
+      <c r="F20" t="s">
+        <v>36</v>
+      </c>
+      <c r="G20" t="s">
+        <v>37</v>
+      </c>
+      <c r="H20" t="s">
         <v>38</v>
       </c>
-      <c r="B13" t="s">
+    </row>
+    <row r="21" spans="1:8" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="149.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" t="s">
         <v>30</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C24" t="s">
+        <v>46</v>
+      </c>
+      <c r="D24" t="s">
         <v>43</v>
       </c>
-      <c r="D13" t="s">
-        <v>33</v>
-      </c>
-      <c r="E13" t="s">
-        <v>40</v>
-      </c>
-      <c r="F13" t="s">
+      <c r="E24" t="s">
+        <v>35</v>
+      </c>
+      <c r="F24" t="s">
         <v>36</v>
       </c>
-      <c r="G13" t="s">
-        <v>41</v>
-      </c>
-      <c r="H13" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B15" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="90" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="270" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
+      <c r="G24" t="s">
         <v>44</v>
       </c>
-      <c r="B19" t="s">
-        <v>30</v>
-      </c>
-      <c r="C19" t="s">
+      <c r="H24" t="s">
         <v>45</v>
       </c>
-      <c r="D19" t="s">
-        <v>46</v>
-      </c>
-      <c r="E19" t="s">
-        <v>47</v>
-      </c>
-      <c r="F19" t="s">
-        <v>48</v>
-      </c>
-      <c r="G19" t="s">
-        <v>49</v>
-      </c>
-      <c r="H19" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="105" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B20" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B21" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="135" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B22" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
+    </row>
+    <row r="25" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B23" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
+      <c r="B25" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
         <v>28</v>
       </c>
     </row>

--- a/HLS_man/COP22/COP22_man_czechrepublic.xlsx
+++ b/HLS_man/COP22/COP22_man_czechrepublic.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Suze van Santen\Documents\GitHub\TextToDistributiveJustice\HLS_man\COP22\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Suze van Santen\OneDrive - Delft University of Technology\Documenten\GitHub\TextToDistributiveJustice\HLS_man\COP22\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C488F873-8D91-43CB-83A5-032A4EBBA645}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCECD90E-465E-40C9-9055-50F4115DF356}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28800" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
   <si>
     <t>COP22_czechrepublic</t>
   </si>
@@ -45,12 +45,6 @@
   </si>
   <si>
     <t>Unit</t>
-  </si>
-  <si>
-    <t>Scale</t>
-  </si>
-  <si>
-    <t>Time</t>
   </si>
   <si>
     <t>Principle</t>
@@ -155,16 +149,6 @@
 Thank you for your attention.</t>
   </si>
   <si>
-    <t xml:space="preserve"> 
- </t>
-  </si>
-  <si>
-    <t>no</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
     <t xml:space="preserve">align with EU </t>
   </si>
   <si>
@@ -172,22 +156,7 @@
 reach more than 2 bill. Euro by 2020.</t>
   </si>
   <si>
-    <t>adaptation, mitigation</t>
-  </si>
-  <si>
-    <t>financial resources</t>
-  </si>
-  <si>
-    <t>global</t>
-  </si>
-  <si>
     <t>n.a.</t>
-  </si>
-  <si>
-    <t>prioritarian</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Support of most vulerable and poorest countries. </t>
   </si>
   <si>
     <t xml:space="preserve">A new Climate Protection Policy in the Czech Republic, which will serve as our 
@@ -212,16 +181,16 @@
 efforts.</t>
   </si>
   <si>
-    <t>measures</t>
-  </si>
-  <si>
     <t>utilitarian</t>
   </si>
   <si>
     <t xml:space="preserve">Presenting the need for implementation of measures for the benefit of current and future generations. </t>
   </si>
   <si>
-    <t>implementation, UNFCCC agreements and policies</t>
+    <t>Shape</t>
+  </si>
+  <si>
+    <t>UNFCCC agreements and principles</t>
   </si>
 </sst>
 </file>
@@ -591,10 +560,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I26"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -602,7 +571,7 @@
     <col min="1" max="1" width="36.44140625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -616,255 +585,226 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:8" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="B2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="B3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="H4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" t="s">
-        <v>29</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="B13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" ht="72" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="72" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="72" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B13" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B14" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="72" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
+      <c r="B20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B16" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A17" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B17" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
+      <c r="B21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B18" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A19" s="3" t="s">
+      <c r="B22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B19" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="72" x14ac:dyDescent="0.3">
-      <c r="A20" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B20" t="s">
-        <v>30</v>
-      </c>
-      <c r="C20" t="s">
+      <c r="B23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="149.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24">
+        <v>2</v>
+      </c>
+      <c r="C24" t="s">
+        <v>36</v>
+      </c>
+      <c r="D24" t="s">
+        <v>28</v>
+      </c>
+      <c r="E24" t="s">
+        <v>28</v>
+      </c>
+      <c r="F24" t="s">
         <v>33</v>
       </c>
-      <c r="D20" t="s">
+      <c r="G24" t="s">
         <v>34</v>
       </c>
-      <c r="E20" t="s">
-        <v>35</v>
-      </c>
-      <c r="F20" t="s">
-        <v>36</v>
-      </c>
-      <c r="G20" t="s">
-        <v>37</v>
-      </c>
-      <c r="H20" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A21" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B21" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A22" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A23" s="3" t="s">
+    </row>
+    <row r="25" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B23" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="149.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B24" t="s">
-        <v>30</v>
-      </c>
-      <c r="C24" t="s">
-        <v>46</v>
-      </c>
-      <c r="D24" t="s">
-        <v>43</v>
-      </c>
-      <c r="E24" t="s">
-        <v>35</v>
-      </c>
-      <c r="F24" t="s">
-        <v>36</v>
-      </c>
-      <c r="G24" t="s">
-        <v>44</v>
-      </c>
-      <c r="H24" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A25" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B25" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A26" s="3" t="s">
-        <v>28</v>
+      <c r="B25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
